--- a/ToeicWords/words.xlsx
+++ b/ToeicWords/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\Desktop\javaFX\ToeicWords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A3064-8CA2-47B9-B29C-59C0A56D18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D8A54-40CF-4455-A6CE-73B09F543651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>pencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencilcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -469,6 +485,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
